--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_a.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -300,10 +306,19 @@
     <t>ROW ($)</t>
   </si>
   <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>X52</t>
+  </si>
+  <si>
     <t>X42</t>
   </si>
   <si>
-    <t>S 40S</t>
+    <t>S 5S</t>
+  </si>
+  <si>
+    <t>S 10</t>
   </si>
   <si>
     <t>Breakdown of compressor by station</t>
@@ -432,7 +447,13 @@
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09</t>
+    <t>PI09_pre_loop_cxn</t>
+  </si>
+  <si>
+    <t>PS_3_loop</t>
+  </si>
+  <si>
+    <t>PI09_post_loop_cxn</t>
   </si>
   <si>
     <t>N01</t>
@@ -471,6 +492,9 @@
     <t>N09</t>
   </si>
   <si>
+    <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -513,7 +537,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1152,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,10 +1198,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.3277276956188936</v>
+        <v>0.4129147891949497</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1185,10 +1209,10 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.0965538225670621</v>
+        <v>0.1683346919082588</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1199,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1207,10 +1231,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03059988377612217</v>
+        <v>0.0308329746103206</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1221,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1229,10 +1253,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006323265292656283</v>
+        <v>0.006371431984814549</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1240,10 +1264,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02398602749420623</v>
+        <v>0.02913763744355076</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1254,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1262,10 +1286,10 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.02730482438311349</v>
+        <v>0.03241915968478644</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1273,10 +1297,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.09633548737689576</v>
+        <v>0.07362531198016714</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1287,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1298,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1309,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1317,10 +1341,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.004286015578389684</v>
+        <v>0.007817886660451599</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1328,10 +1352,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.04119710611369714</v>
+        <v>0.06312418117481282</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1339,10 +1363,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001141263036750838</v>
+        <v>0.001251513747787214</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1353,7 +1377,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1364,7 +1388,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1375,7 +1399,7 @@
         <v>13.54723404173073</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1386,7 +1410,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1397,7 +1421,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1405,10 +1429,10 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>241.7864749227257</v>
+        <v>361.9964121403945</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1416,10 +1440,10 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>150.239103709209</v>
+        <v>224.9340726080891</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1438,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1446,10 +1470,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>3751.928879286683</v>
+        <v>2867.447311333488</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1457,10 +1481,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>156.3303699702784</v>
+        <v>119.476971305562</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1471,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1479,10 +1503,10 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>160128739.8641296</v>
+        <v>277062528.8841085</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1493,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1504,7 +1528,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1515,7 +1539,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1523,208 +1547,297 @@
         <v>68</v>
       </c>
       <c r="B34">
-        <v>39779392</v>
+        <v>47957717</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>24.24086700823207</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+      <c r="G46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>750</v>
+      </c>
+      <c r="B47">
+        <v>67.45820523916407</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47">
+        <v>23120282.03845678</v>
+      </c>
+      <c r="F47">
+        <v>19114614.13178099</v>
+      </c>
+      <c r="G47">
+        <v>8282266.667222881</v>
+      </c>
+      <c r="H47">
+        <v>1342695.477078053</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>850</v>
+      </c>
+      <c r="B48">
+        <v>126.6760079493367</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>97</v>
+      </c>
+      <c r="E48">
+        <v>59241555.02565236</v>
+      </c>
+      <c r="F48">
+        <v>39603443.04705632</v>
+      </c>
+      <c r="G48">
+        <v>17168899.52268498</v>
+      </c>
+      <c r="H48">
+        <v>2770864.376123202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
         <v>650</v>
       </c>
-      <c r="B46">
-        <v>241.7864749227257</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46">
-        <v>81223779.61916459</v>
-      </c>
-      <c r="F46">
-        <v>51750946.45014641</v>
-      </c>
-      <c r="G46">
-        <v>22770083.77564277</v>
-      </c>
-      <c r="H46">
-        <v>4383930.019175823</v>
+      <c r="B49">
+        <v>96.45188823049887</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49">
+        <v>27024800.54530703</v>
+      </c>
+      <c r="F49">
+        <v>22304836.65426569</v>
+      </c>
+      <c r="G49">
+        <v>9742275.147510797</v>
+      </c>
+      <c r="H49">
+        <v>1737099.786899391</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A50">
+        <v>650</v>
+      </c>
+      <c r="B50">
+        <v>71.41031072139488</v>
+      </c>
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="D50" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52">
-        <v>6.202460627252075</v>
-      </c>
-      <c r="C52">
-        <v>12.5</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G52">
-        <v>59.28176734146061</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53">
-        <v>5.081614386696615</v>
-      </c>
-      <c r="C53">
-        <v>12.5</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="G53">
-        <v>48.5689631736738</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="E50">
+        <v>20008414.9675969</v>
+      </c>
+      <c r="F50">
+        <v>16937145.73082745</v>
+      </c>
+      <c r="G50">
+        <v>7380058.098052164</v>
+      </c>
+      <c r="H50">
+        <v>1283277.667593572</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54">
-        <v>5.072268733351474</v>
-      </c>
-      <c r="C54">
+      <c r="G55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56">
+        <v>4.189765264697724</v>
+      </c>
+      <c r="C56">
         <v>12.5</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="E56">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F56">
         <v>16916025.69007904</v>
       </c>
-      <c r="G54">
-        <v>48.47963945514405</v>
-      </c>
-      <c r="H54">
+      <c r="G56">
+        <v>40.04486357331121</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57">
+        <v>3.283512047412763</v>
+      </c>
+      <c r="C57">
+        <v>12.5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G57">
+        <v>31.38309276843322</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58">
+        <v>5.027213877999434</v>
+      </c>
+      <c r="C58">
+        <v>12.5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G58">
+        <v>48.04901496381759</v>
+      </c>
+      <c r="H58">
         <v>0</v>
       </c>
     </row>
@@ -1735,7 +1848,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1743,58 +1856,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -1802,34 +1915,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2">
-        <v>49.79516207374279</v>
+        <v>39.78282358369761</v>
       </c>
       <c r="G2">
         <v>650</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <v>9.525</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K2">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -1838,19 +1951,19 @@
         <v>24.85484</v>
       </c>
       <c r="N2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>5768676.252636823</v>
+        <v>4459023.716228035</v>
       </c>
       <c r="P2">
-        <v>6.936722436926694</v>
+        <v>7.130868018881584</v>
       </c>
       <c r="Q2">
-        <v>0.01144698518492989</v>
+        <v>0.01185531208685275</v>
       </c>
       <c r="R2">
-        <v>25.87894433971151</v>
+        <v>29.35528343945666</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1858,55 +1971,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F3">
-        <v>49.79515722847614</v>
+        <v>39.7828174826036</v>
       </c>
       <c r="G3">
         <v>650</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>9.525</v>
       </c>
       <c r="J3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>11.8067453551142</v>
+        <v>27.45820523916407</v>
       </c>
       <c r="M3">
-        <v>7.336369168052666</v>
+        <v>17.06173244766462</v>
       </c>
       <c r="N3">
-        <v>5768676.252636823</v>
+        <v>4459023.716228035</v>
       </c>
       <c r="O3">
-        <v>5672867.941009051</v>
+        <v>4270982.154079858</v>
       </c>
       <c r="P3">
-        <v>7.051442381606437</v>
+        <v>7.437624916534694</v>
       </c>
       <c r="Q3">
-        <v>0.01164221559237459</v>
+        <v>0.01237998769574886</v>
       </c>
       <c r="R3">
-        <v>26.09206320626525</v>
+        <v>29.98004640786459</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1914,55 +2027,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F4">
-        <v>49.79520402705746</v>
+        <v>59.64158636229284</v>
       </c>
       <c r="G4">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I4">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K4">
-        <v>6.12511734325328</v>
+        <v>4.757837256443139</v>
       </c>
       <c r="L4">
-        <v>51.8067453551142</v>
+        <v>67.45820523916407</v>
       </c>
       <c r="M4">
-        <v>32.19120916805267</v>
+        <v>41.91657244766462</v>
       </c>
       <c r="N4">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O4">
-        <v>5672867.941009051</v>
+        <v>4270982.154079858</v>
       </c>
       <c r="P4">
-        <v>7.05145023980347</v>
+        <v>8.168959093231496</v>
       </c>
       <c r="Q4">
-        <v>0.01164222856657463</v>
+        <v>0.01359729943310995</v>
       </c>
       <c r="R4">
-        <v>26.09206320626525</v>
+        <v>29.98004640786459</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1970,55 +2083,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F5">
-        <v>99.59057597697354</v>
+        <v>99.42479791081941</v>
       </c>
       <c r="G5">
         <v>650</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <v>9.525</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>18.1932546448858</v>
+        <v>2.541794760835927</v>
       </c>
       <c r="M5">
-        <v>11.30476083194734</v>
+        <v>1.579397552335381</v>
       </c>
       <c r="N5">
-        <v>5672867.941009051</v>
+        <v>4270982.154079858</v>
       </c>
       <c r="O5">
-        <v>5065436.715267434</v>
+        <v>4163853.45493912</v>
       </c>
       <c r="P5">
-        <v>15.75720423495498</v>
+        <v>19.05530775894465</v>
       </c>
       <c r="Q5">
-        <v>0.02610283387488625</v>
+        <v>0.03173975164132481</v>
       </c>
       <c r="R5">
-        <v>27.57987729549625</v>
+        <v>30.35441837681582</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2026,34 +2139,34 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F6">
-        <v>55.80061018363408</v>
+        <v>40.6177170332925</v>
       </c>
       <c r="G6">
         <v>650</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>9.525</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K6">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L6">
         <v>31.5</v>
@@ -2062,19 +2175,19 @@
         <v>19.5731865</v>
       </c>
       <c r="N6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O6">
-        <v>5774358.06456308</v>
+        <v>4507131.253866936</v>
       </c>
       <c r="P6">
-        <v>7.765718177887592</v>
+        <v>7.204416171471117</v>
       </c>
       <c r="Q6">
-        <v>0.01281460990340384</v>
+        <v>0.01197402600196389</v>
       </c>
       <c r="R6">
-        <v>25.86647138757773</v>
+        <v>29.20165964795044</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2082,34 +2195,34 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F7">
-        <v>38.14227845522031</v>
+        <v>22.95938654117471</v>
       </c>
       <c r="G7">
         <v>650</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>9.525</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L7">
         <v>48.5</v>
@@ -2118,19 +2231,19 @@
         <v>30.1364935</v>
       </c>
       <c r="N7">
-        <v>5774358.06456308</v>
+        <v>4507131.253866936</v>
       </c>
       <c r="O7">
-        <v>5536717.380889363</v>
+        <v>4393715.737919576</v>
       </c>
       <c r="P7">
-        <v>5.531270336846717</v>
+        <v>4.175093712600678</v>
       </c>
       <c r="Q7">
-        <v>0.009139024402382298</v>
+        <v>0.006944066648807323</v>
       </c>
       <c r="R7">
-        <v>26.40431959036493</v>
+        <v>29.56779249153052</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2138,55 +2251,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>38.14227840031547</v>
+        <v>22.95938645528982</v>
       </c>
       <c r="G8">
         <v>650</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I8">
         <v>9.525</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>38.16336780789769</v>
+        <v>46.67600794933666</v>
       </c>
       <c r="M8">
-        <v>23.7136100181612</v>
+        <v>29.00311773548727</v>
       </c>
       <c r="N8">
-        <v>5536717.380889363</v>
+        <v>4393715.737919576</v>
       </c>
       <c r="O8">
-        <v>5342456.485052179</v>
+        <v>4281794.671028516</v>
       </c>
       <c r="P8">
-        <v>5.728174680220655</v>
+        <v>4.281736175845985</v>
       </c>
       <c r="Q8">
-        <v>0.00947439279291855</v>
+        <v>0.0071264909729266</v>
       </c>
       <c r="R8">
-        <v>26.87018555006463</v>
+        <v>29.94302962589518</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2194,55 +2307,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F9">
-        <v>43.52257872346451</v>
+        <v>58.62622163210132</v>
       </c>
       <c r="G9">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I9">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K9">
-        <v>6.12511734325328</v>
+        <v>4.832051316369016</v>
       </c>
       <c r="L9">
-        <v>118.1633678078977</v>
+        <v>126.6760079493367</v>
       </c>
       <c r="M9">
-        <v>73.4232900181612</v>
+        <v>78.71279773548729</v>
       </c>
       <c r="N9">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>5342456.485052179</v>
+        <v>4281794.671028516</v>
       </c>
       <c r="P9">
-        <v>6.536183675642528</v>
+        <v>6.257576471268655</v>
       </c>
       <c r="Q9">
-        <v>0.01081083852479757</v>
+        <v>0.01041506538549937</v>
       </c>
       <c r="R9">
-        <v>26.87018555006463</v>
+        <v>29.94302962589518</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2250,55 +2363,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F10">
-        <v>81.66486322098299</v>
+        <v>81.58561784728603</v>
       </c>
       <c r="G10">
         <v>650</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I10">
         <v>9.525</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>11.83663219210231</v>
+        <v>3.323992050663335</v>
       </c>
       <c r="M10">
-        <v>7.354939981838805</v>
+        <v>2.065432264512727</v>
       </c>
       <c r="N10">
-        <v>5342456.485052179</v>
+        <v>4281794.671028516</v>
       </c>
       <c r="O10">
-        <v>5066235.551172944</v>
+        <v>4187062.925450178</v>
       </c>
       <c r="P10">
-        <v>12.91877166595397</v>
+        <v>15.55132746607871</v>
       </c>
       <c r="Q10">
-        <v>0.02140068842515157</v>
+        <v>0.02589936707267376</v>
       </c>
       <c r="R10">
-        <v>27.57774834766886</v>
+        <v>30.27211505485891</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2306,34 +2419,34 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F11">
-        <v>40.72317343237377</v>
+        <v>40.45828744885772</v>
       </c>
       <c r="G11">
         <v>650</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <v>9.525</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L11">
         <v>50</v>
@@ -2342,19 +2455,19 @@
         <v>31.06855</v>
       </c>
       <c r="N11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O11">
-        <v>5817758.811925029</v>
+        <v>4380185.928533822</v>
       </c>
       <c r="P11">
-        <v>5.625993359732876</v>
+        <v>7.379432487402358</v>
       </c>
       <c r="Q11">
-        <v>0.009281615927312135</v>
+        <v>0.01227460561863438</v>
       </c>
       <c r="R11">
-        <v>25.77179640762858</v>
+        <v>29.61240128230223</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2362,55 +2475,55 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F12">
-        <v>40.72317343175447</v>
+        <v>40.45828745116749</v>
       </c>
       <c r="G12">
         <v>650</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I12">
         <v>9.525</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>21.81636175971386</v>
+        <v>46.45188823049887</v>
       </c>
       <c r="M12">
-        <v>13.55605452299516</v>
+        <v>28.86385624167331</v>
       </c>
       <c r="N12">
-        <v>5817758.811925029</v>
+        <v>4380185.928533822</v>
       </c>
       <c r="O12">
-        <v>5698576.76738244</v>
+        <v>4039730.905092273</v>
       </c>
       <c r="P12">
-        <v>5.741209176120655</v>
+        <v>7.986475785066582</v>
       </c>
       <c r="Q12">
-        <v>0.009477670146584212</v>
+        <v>0.01331374560271086</v>
       </c>
       <c r="R12">
-        <v>26.03435181499239</v>
+        <v>30.80631370536151</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2418,55 +2531,55 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E13" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F13">
-        <v>40.72321059029897</v>
+        <v>40.98615950481964</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I13">
-        <v>9.525</v>
+        <v>7.925</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>6.12511734325328</v>
+        <v>5.096226240974513</v>
       </c>
       <c r="L13">
-        <v>71.81636175971386</v>
+        <v>96.45188823049887</v>
       </c>
       <c r="M13">
-        <v>44.62460452299516</v>
+        <v>59.93240624167331</v>
       </c>
       <c r="N13">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O13">
-        <v>5698576.76738244</v>
+        <v>4039730.905092273</v>
       </c>
       <c r="P13">
-        <v>5.741214414966637</v>
+        <v>8.010541635224845</v>
       </c>
       <c r="Q13">
-        <v>0.009477678794946022</v>
+        <v>0.01335386425020231</v>
       </c>
       <c r="R13">
-        <v>26.03435181499239</v>
+        <v>30.80631370536151</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2474,55 +2587,55 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F14">
-        <v>81.44638407240214</v>
+        <v>81.44444692127226</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I14">
         <v>9.525</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K14">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>28.18363824028614</v>
+        <v>3.548111769501133</v>
       </c>
       <c r="M14">
-        <v>17.51249547700484</v>
+        <v>2.204693758326688</v>
       </c>
       <c r="N14">
-        <v>5698576.76738244</v>
+        <v>4039730.905092273</v>
       </c>
       <c r="O14">
-        <v>5065475.398699772</v>
+        <v>3932831.325420044</v>
       </c>
       <c r="P14">
-        <v>12.88609825355953</v>
+        <v>16.50358032857635</v>
       </c>
       <c r="Q14">
-        <v>0.02134665534390096</v>
+        <v>0.02753205947066126</v>
       </c>
       <c r="R14">
-        <v>27.57977419024869</v>
+        <v>31.21218975190076</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2530,34 +2643,34 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D15" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F15">
-        <v>81.2283172756392</v>
+        <v>40.35095779164422</v>
       </c>
       <c r="G15">
         <v>650</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I15">
         <v>9.525</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L15">
         <v>50</v>
@@ -2566,19 +2679,19 @@
         <v>31.06855</v>
       </c>
       <c r="N15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
       <c r="O15">
-        <v>4996023.795440761</v>
+        <v>4381989.835913492</v>
       </c>
       <c r="P15">
-        <v>13.02647842516543</v>
+        <v>7.356894016792912</v>
       </c>
       <c r="Q15">
-        <v>0.02158776873233971</v>
+        <v>0.01223697728997645</v>
       </c>
       <c r="R15">
-        <v>27.76678999120384</v>
+        <v>29.60644193015334</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2586,55 +2699,167 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F16">
-        <v>81.22831727103269</v>
+        <v>40.35095779166229</v>
       </c>
       <c r="G16">
         <v>650</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>9.525</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>6.082278702557526</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>21.41031072139488</v>
       </c>
       <c r="M16">
-        <v>31.06855</v>
+        <v>13.30374618326386</v>
       </c>
       <c r="N16">
-        <v>4996023.795440761</v>
+        <v>4381989.835913492</v>
       </c>
       <c r="O16">
-        <v>3604355.286333165</v>
+        <v>4229263.151367228</v>
       </c>
       <c r="P16">
-        <v>17.92073178054691</v>
+        <v>7.616447016840926</v>
       </c>
       <c r="Q16">
-        <v>0.02996651183507831</v>
+        <v>0.01268104643910036</v>
       </c>
       <c r="R16">
-        <v>32.56792080313441</v>
+        <v>30.12417627856449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17">
+        <v>40.87735948347838</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17">
+        <v>7.925</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L17">
+        <v>71.41031072139488</v>
+      </c>
+      <c r="M17">
+        <v>44.37229618326386</v>
+      </c>
+      <c r="N17">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O17">
+        <v>4229263.151367228</v>
+      </c>
+      <c r="P17">
+        <v>7.639384768925519</v>
+      </c>
+      <c r="Q17">
+        <v>0.01271923677886773</v>
+      </c>
+      <c r="R17">
+        <v>30.12417627856449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F18">
+        <v>81.22831724010862</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L18">
+        <v>28.58968927860512</v>
+      </c>
+      <c r="M18">
+        <v>17.76480381673614</v>
+      </c>
+      <c r="N18">
+        <v>4229263.151367228</v>
+      </c>
+      <c r="O18">
+        <v>3326250.575698311</v>
+      </c>
+      <c r="P18">
+        <v>19.3772853388104</v>
+      </c>
+      <c r="Q18">
+        <v>0.03247204751003881</v>
+      </c>
+      <c r="R18">
+        <v>33.86558881357831</v>
       </c>
     </row>
   </sheetData>
@@ -2652,72 +2877,72 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="B2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2726,16 +2951,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.200741228140367</v>
+        <v>1.133528911202676</v>
       </c>
       <c r="I2">
-        <v>59.28176734146061</v>
+        <v>40.04486357331121</v>
       </c>
       <c r="J2">
-        <v>6.202460627252075</v>
+        <v>4.189765264697724</v>
       </c>
       <c r="K2">
-        <v>8317.623750357578</v>
+        <v>5618.559015264941</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2761,16 +2986,16 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -2779,16 +3004,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.200551897187123</v>
+        <v>1.127245603235633</v>
       </c>
       <c r="I3">
-        <v>48.5689631736738</v>
+        <v>31.38309276843322</v>
       </c>
       <c r="J3">
-        <v>5.081614386696615</v>
+        <v>3.283512047412763</v>
       </c>
       <c r="K3">
-        <v>6814.546524847895</v>
+        <v>4403.255325821463</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2814,16 +3039,16 @@
     </row>
     <row r="4" spans="1:18">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F4">
         <v>300</v>
@@ -2832,16 +3057,16 @@
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200732058459656</v>
+        <v>1.200114594968178</v>
       </c>
       <c r="I4">
-        <v>48.47963945514405</v>
+        <v>48.04901496381759</v>
       </c>
       <c r="J4">
-        <v>5.072268733351474</v>
+        <v>5.027213877999434</v>
       </c>
       <c r="K4">
-        <v>6802.013816798994</v>
+        <v>6741.5943546748</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2872,7 +3097,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2880,138 +3105,146 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B2">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3">
-        <v>5768676.252636823</v>
+        <v>4459023.716228035</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>5672867.941009051</v>
+        <v>4270982.154079858</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B5">
-        <v>5065436.715267434</v>
+        <v>4163853.45493912</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B6">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B7">
-        <v>5774358.06456308</v>
+        <v>4507131.253866936</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B8">
-        <v>5536717.380889363</v>
+        <v>4393715.737919576</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B9">
-        <v>5342456.485052179</v>
+        <v>4281794.671028516</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B10">
-        <v>5066235.551172944</v>
+        <v>4187062.925450178</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B11">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B12">
-        <v>5817758.811925029</v>
+        <v>4380185.928533822</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B13">
-        <v>5698576.76738244</v>
+        <v>4039730.905092273</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B14">
-        <v>5065475.398699772</v>
+        <v>3932831.325420044</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B15">
-        <v>6082278.702557526</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B16">
-        <v>4996023.795440761</v>
+        <v>4381989.835913492</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B17">
-        <v>3604355.286333165</v>
+        <v>4229263.151367228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18">
+        <v>3326250.575698311</v>
       </c>
     </row>
   </sheetData>
@@ -3029,36 +3262,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833172841377</v>
+        <v>17.65833049211779</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3067,21 +3300,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520514186072</v>
+        <v>1150.520433635774</v>
       </c>
       <c r="G2">
-        <v>9.924732447780076E-06</v>
+        <v>2.923526911898426E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165732105111</v>
+        <v>45.91165730357228</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3090,21 +3323,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999850763</v>
+        <v>2991.352998711938</v>
       </c>
       <c r="G3">
-        <v>-4.98895662226315E-09</v>
+        <v>-4.305951760196387E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665994998159</v>
+        <v>35.31665993653635</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3113,10 +3346,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799885202</v>
+        <v>2301.040799009183</v>
       </c>
       <c r="G4">
-        <v>-4.988976674745522E-09</v>
+        <v>-4.305952166906831E-08</v>
       </c>
     </row>
   </sheetData>

--- a/examples/wangetal2018/out/ResultFiles/PL_0.5_a.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/PL_0.5_a.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="250">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -405,9 +405,18 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
+    <t>PI01_0</t>
+  </si>
+  <si>
+    <t>PI01_1</t>
+  </si>
+  <si>
     <t>PI01</t>
   </si>
   <si>
+    <t>PI02_0</t>
+  </si>
+  <si>
     <t>PI02_pre_loop_cxn</t>
   </si>
   <si>
@@ -417,12 +426,27 @@
     <t>PI02_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI03_0</t>
+  </si>
+  <si>
     <t>PI03</t>
   </si>
   <si>
+    <t>PI04_0</t>
+  </si>
+  <si>
+    <t>PI04_1</t>
+  </si>
+  <si>
     <t>PI04</t>
   </si>
   <si>
+    <t>PI05_0</t>
+  </si>
+  <si>
+    <t>PI05_1</t>
+  </si>
+  <si>
     <t>PI05_pre_loop_cxn</t>
   </si>
   <si>
@@ -432,9 +456,21 @@
     <t>PI05_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1</t>
+  </si>
+  <si>
     <t>PI06</t>
   </si>
   <si>
+    <t>PI07_0</t>
+  </si>
+  <si>
+    <t>PI07_1</t>
+  </si>
+  <si>
     <t>PI07_pre_loop_cxn</t>
   </si>
   <si>
@@ -444,55 +480,217 @@
     <t>PI07_post_loop_cxn</t>
   </si>
   <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1</t>
+  </si>
+  <si>
     <t>PI08</t>
   </si>
   <si>
-    <t>PI09_pre_loop_cxn</t>
+    <t>PI09_0</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_loop_cxn</t>
   </si>
   <si>
     <t>PS_3_loop</t>
   </si>
   <si>
-    <t>PI09_post_loop_cxn</t>
+    <t>PI09_1_post_loop_cxn</t>
+  </si>
+  <si>
+    <t>PI09</t>
+  </si>
+  <si>
+    <t>PS_0_loop_0</t>
+  </si>
+  <si>
+    <t>PS_0_loop_1</t>
+  </si>
+  <si>
+    <t>PS_0_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_0</t>
+  </si>
+  <si>
+    <t>PS_1_loop_1</t>
+  </si>
+  <si>
+    <t>PS_1_loop_2</t>
+  </si>
+  <si>
+    <t>PS_1_loop_3</t>
+  </si>
+  <si>
+    <t>PS_1_loop_4</t>
+  </si>
+  <si>
+    <t>PS_2_loop_0</t>
+  </si>
+  <si>
+    <t>PS_2_loop_1</t>
+  </si>
+  <si>
+    <t>PS_2_loop_2</t>
+  </si>
+  <si>
+    <t>PS_2_loop_3</t>
+  </si>
+  <si>
+    <t>PS_2_loop_4</t>
+  </si>
+  <si>
+    <t>PS_3_loop_0</t>
+  </si>
+  <si>
+    <t>PS_3_loop_1</t>
+  </si>
+  <si>
+    <t>PS_3_loop_2</t>
+  </si>
+  <si>
+    <t>PS_3_loop_3</t>
   </si>
   <si>
     <t>N01</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
+    <t>N01_2</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_0</t>
   </si>
   <si>
     <t>N03_C</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N03_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_1</t>
   </si>
   <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N07</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
+    <t>N07_1</t>
+  </si>
+  <si>
+    <t>N06_C_4</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_2</t>
   </si>
   <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N09</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
+    <t>N08_C_3</t>
+  </si>
+  <si>
     <t>loop_cxn_node_ps_3</t>
+  </si>
+  <si>
+    <t>N09_1</t>
+  </si>
+  <si>
+    <t>N01_0_</t>
+  </si>
+  <si>
+    <t>N01_1_</t>
+  </si>
+  <si>
+    <t>N03_C_0_</t>
+  </si>
+  <si>
+    <t>N03_C_1</t>
+  </si>
+  <si>
+    <t>N03_C_2</t>
+  </si>
+  <si>
+    <t>N03_C_3</t>
+  </si>
+  <si>
+    <t>N06_C_0_</t>
+  </si>
+  <si>
+    <t>N06_C_1_</t>
+  </si>
+  <si>
+    <t>N06_C_2</t>
+  </si>
+  <si>
+    <t>N06_C_3</t>
+  </si>
+  <si>
+    <t>N08_C_0_</t>
+  </si>
+  <si>
+    <t>N08_C_1_</t>
+  </si>
+  <si>
+    <t>N08_C_2</t>
   </si>
   <si>
     <t>N03</t>
@@ -1198,7 +1396,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>0.4129147891949497</v>
+        <v>0.4167270001161803</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1209,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>0.1683346919082588</v>
+        <v>0.1697020022850007</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1231,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.0308329746103206</v>
+        <v>0.03083715705514202</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1253,7 +1451,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.006371431984814549</v>
+        <v>0.006372296259606284</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1264,7 +1462,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.02913763744355076</v>
+        <v>0.0291415899185349</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1286,7 +1484,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>0.03241915968478644</v>
+        <v>0.03256029104585297</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -1297,7 +1495,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>0.07362531198016714</v>
+        <v>0.0754768871605371</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1341,7 +1539,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.007817886660451599</v>
+        <v>0.007869904292253831</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1352,7 +1550,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.06312418117481282</v>
+        <v>0.06349978464034874</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1363,7 +1561,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.001251513747787214</v>
+        <v>0.001267087458903965</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1429,7 +1627,7 @@
         <v>59</v>
       </c>
       <c r="B23">
-        <v>361.9964121403945</v>
+        <v>365.3136354064758</v>
       </c>
       <c r="C23" t="s">
         <v>74</v>
@@ -1440,7 +1638,7 @@
         <v>59</v>
       </c>
       <c r="B24">
-        <v>224.9340726080891</v>
+        <v>226.9952989461573</v>
       </c>
       <c r="C24" t="s">
         <v>75</v>
@@ -1470,7 +1668,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>2867.447311333488</v>
+        <v>2939.5596614192</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1481,7 +1679,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>119.476971305562</v>
+        <v>122.4816525591334</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1503,7 +1701,7 @@
         <v>64</v>
       </c>
       <c r="B30">
-        <v>277062528.8841085</v>
+        <v>279275105.5336579</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1588,7 +1786,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1633,7 +1831,7 @@
         <v>750</v>
       </c>
       <c r="B47">
-        <v>67.45820523916407</v>
+        <v>67.84661290782701</v>
       </c>
       <c r="C47" t="s">
         <v>93</v>
@@ -1642,16 +1840,16 @@
         <v>96</v>
       </c>
       <c r="E47">
-        <v>23120282.03845678</v>
+        <v>23253402.90660838</v>
       </c>
       <c r="F47">
-        <v>19114614.13178099</v>
+        <v>19215381.25842043</v>
       </c>
       <c r="G47">
-        <v>8282266.667222881</v>
+        <v>8326310.020993961</v>
       </c>
       <c r="H47">
-        <v>1342695.477078053</v>
+        <v>1350483.062205861</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1659,7 +1857,7 @@
         <v>850</v>
       </c>
       <c r="B48">
-        <v>126.6760079493367</v>
+        <v>127.1744103792427</v>
       </c>
       <c r="C48" t="s">
         <v>94</v>
@@ -1668,16 +1866,16 @@
         <v>97</v>
       </c>
       <c r="E48">
-        <v>59241555.02565236</v>
+        <v>59474638.90202466</v>
       </c>
       <c r="F48">
-        <v>39603443.04705632</v>
+        <v>39746119.49077158</v>
       </c>
       <c r="G48">
-        <v>17168899.52268498</v>
+        <v>17231292.60978885</v>
       </c>
       <c r="H48">
-        <v>2770864.376123202</v>
+        <v>2781846.097837479</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1685,7 +1883,7 @@
         <v>650</v>
       </c>
       <c r="B49">
-        <v>96.45188823049887</v>
+        <v>97.33607087508021</v>
       </c>
       <c r="C49" t="s">
         <v>95</v>
@@ -1694,16 +1892,16 @@
         <v>97</v>
       </c>
       <c r="E49">
-        <v>27024800.54530703</v>
+        <v>27272539.18530472</v>
       </c>
       <c r="F49">
-        <v>22304836.65426569</v>
+        <v>22492020.60594553</v>
       </c>
       <c r="G49">
-        <v>9742275.147510797</v>
+        <v>9824748.503195591</v>
       </c>
       <c r="H49">
-        <v>1737099.786899391</v>
+        <v>1753140.869359645</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1711,7 +1909,7 @@
         <v>650</v>
       </c>
       <c r="B50">
-        <v>71.41031072139488</v>
+        <v>72.95654124432581</v>
       </c>
       <c r="C50" t="s">
         <v>95</v>
@@ -1720,16 +1918,16 @@
         <v>97</v>
       </c>
       <c r="E50">
-        <v>20008414.9675969</v>
+        <v>20441652.43184865</v>
       </c>
       <c r="F50">
-        <v>16937145.73082745</v>
+        <v>17272702.46788871</v>
       </c>
       <c r="G50">
-        <v>7380058.098052164</v>
+        <v>7527557.628079119</v>
       </c>
       <c r="H50">
-        <v>1283277.667593572</v>
+        <v>1311269.493384736</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1768,7 +1966,7 @@
         <v>107</v>
       </c>
       <c r="B56">
-        <v>4.189765264697724</v>
+        <v>4.284169773861142</v>
       </c>
       <c r="C56">
         <v>12.5</v>
@@ -1783,7 +1981,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G56">
-        <v>40.04486357331121</v>
+        <v>40.94716130392816</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1794,7 +1992,7 @@
         <v>108</v>
       </c>
       <c r="B57">
-        <v>3.283512047412763</v>
+        <v>3.355602241408057</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1809,7 +2007,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>31.38309276843322</v>
+        <v>32.07211513630646</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1820,7 +2018,7 @@
         <v>109</v>
       </c>
       <c r="B58">
-        <v>5.027213877999434</v>
+        <v>5.17508930934386</v>
       </c>
       <c r="C58">
         <v>12.5</v>
@@ -1835,7 +2033,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G58">
-        <v>48.04901496381759</v>
+        <v>49.46237611889874</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1848,7 +2046,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1918,16 +2116,16 @@
         <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F2">
-        <v>39.78282358369761</v>
+        <v>39.787918509794</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -1945,25 +2143,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M2">
-        <v>24.85484</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N2">
         <v>4719848.27318464</v>
       </c>
       <c r="O2">
-        <v>4459023.716228035</v>
+        <v>4632613.340020168</v>
       </c>
       <c r="P2">
-        <v>7.130868018881584</v>
+        <v>6.909909513324135</v>
       </c>
       <c r="Q2">
-        <v>0.01185531208685275</v>
+        <v>0.01135228546805447</v>
       </c>
       <c r="R2">
-        <v>29.35528343945666</v>
+        <v>29.12548238030001</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -1974,16 +2172,16 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F3">
-        <v>39.7828174826036</v>
+        <v>39.78791953234345</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2001,25 +2199,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L3">
-        <v>27.45820523916407</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M3">
-        <v>17.06173244766462</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N3">
-        <v>4459023.716228035</v>
+        <v>4632613.340020168</v>
       </c>
       <c r="O3">
-        <v>4270982.154079858</v>
+        <v>4543704.623053531</v>
       </c>
       <c r="P3">
-        <v>7.437624916534694</v>
+        <v>6.930140595532333</v>
       </c>
       <c r="Q3">
-        <v>0.01237998769574886</v>
+        <v>0.01138927223874383</v>
       </c>
       <c r="R3">
-        <v>29.98004640786459</v>
+        <v>29.40905654169732</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2030,52 +2228,52 @@
         <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F4">
-        <v>59.64158636229284</v>
+        <v>39.7879206238247</v>
       </c>
       <c r="G4">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="I4">
-        <v>6.35</v>
+        <v>9.525</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>4.757837256443139</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L4">
-        <v>67.45820523916407</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M4">
-        <v>41.91657244766462</v>
+        <v>8.284946666666665</v>
       </c>
       <c r="N4">
-        <v>4719848.27318464</v>
+        <v>4543704.623053531</v>
       </c>
       <c r="O4">
-        <v>4270982.154079858</v>
+        <v>4453020.407151617</v>
       </c>
       <c r="P4">
-        <v>8.168959093231496</v>
+        <v>6.950550477982359</v>
       </c>
       <c r="Q4">
-        <v>0.01359729943310995</v>
+        <v>0.01142662031266091</v>
       </c>
       <c r="R4">
-        <v>29.98004640786459</v>
+        <v>29.70711888780631</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2086,16 +2284,16 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F5">
-        <v>99.42479791081941</v>
+        <v>39.78792184541852</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2113,45 +2311,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L5">
-        <v>2.541794760835927</v>
+        <v>15</v>
       </c>
       <c r="M5">
-        <v>1.579397552335381</v>
+        <v>9.320565</v>
       </c>
       <c r="N5">
-        <v>4270982.154079858</v>
+        <v>4453020.407151617</v>
       </c>
       <c r="O5">
-        <v>4163853.45493912</v>
+        <v>4348739.973889815</v>
       </c>
       <c r="P5">
-        <v>19.05530775894465</v>
+        <v>6.973728573128249</v>
       </c>
       <c r="Q5">
-        <v>0.03173975164132481</v>
+        <v>0.01146913386176338</v>
       </c>
       <c r="R5">
-        <v>30.35441837681582</v>
+        <v>30.06133381937019</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F6">
-        <v>40.6177170332925</v>
+        <v>39.78792310494709</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2169,101 +2367,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L6">
-        <v>31.5</v>
+        <v>12.84661290782701</v>
       </c>
       <c r="M6">
-        <v>19.5731865</v>
+        <v>7.982512709149377</v>
       </c>
       <c r="N6">
-        <v>4719848.27318464</v>
+        <v>4348739.973889815</v>
       </c>
       <c r="O6">
-        <v>4507131.253866936</v>
+        <v>4257399.031389835</v>
       </c>
       <c r="P6">
-        <v>7.204416171471117</v>
+        <v>6.993764792005571</v>
       </c>
       <c r="Q6">
-        <v>0.01197402600196389</v>
+        <v>0.01150597468925467</v>
       </c>
       <c r="R6">
-        <v>29.20165964795044</v>
+        <v>30.38223386927818</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="F7">
-        <v>22.95938654117471</v>
+        <v>59.64914209313428</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
+        <v>6.35</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>4.71984827318464</v>
+        <v>4.757837256443139</v>
       </c>
       <c r="L7">
-        <v>48.5</v>
+        <v>16.96165322695675</v>
       </c>
       <c r="M7">
-        <v>30.1364935</v>
+        <v>10.53947942728734</v>
       </c>
       <c r="N7">
-        <v>4507131.253866936</v>
+        <v>4377595.17267076</v>
       </c>
       <c r="O7">
-        <v>4393715.737919576</v>
+        <v>4257399.031389835</v>
       </c>
       <c r="P7">
-        <v>4.175093712600678</v>
+        <v>7.687406561562604</v>
       </c>
       <c r="Q7">
-        <v>0.006944066648807323</v>
+        <v>0.01264151599214179</v>
       </c>
       <c r="R7">
-        <v>29.56779249153052</v>
+        <v>30.38223386927818</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F8">
-        <v>22.95938645528982</v>
+        <v>99.43661888279976</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2281,25 +2479,25 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L8">
-        <v>46.67600794933666</v>
+        <v>2.153387092172991</v>
       </c>
       <c r="M8">
-        <v>29.00311773548727</v>
+        <v>1.338052290850624</v>
       </c>
       <c r="N8">
-        <v>4393715.737919576</v>
+        <v>4257399.031389835</v>
       </c>
       <c r="O8">
-        <v>4281794.671028516</v>
+        <v>4164289.267925417</v>
       </c>
       <c r="P8">
-        <v>4.281736175845985</v>
+        <v>17.48217924089627</v>
       </c>
       <c r="Q8">
-        <v>0.0071264909729266</v>
+        <v>0.0287711697072641</v>
       </c>
       <c r="R8">
-        <v>29.94302962589518</v>
+        <v>30.72020305004796</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2310,52 +2508,52 @@
         <v>133</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F9">
-        <v>58.62622163210132</v>
+        <v>40.63411663061516</v>
       </c>
       <c r="G9">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K9">
-        <v>4.832051316369016</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L9">
-        <v>126.6760079493367</v>
+        <v>15.75</v>
       </c>
       <c r="M9">
-        <v>78.71279773548729</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N9">
         <v>4719848.27318464</v>
       </c>
       <c r="O9">
-        <v>4281794.671028516</v>
+        <v>4612294.53536469</v>
       </c>
       <c r="P9">
-        <v>6.257576471268655</v>
+        <v>7.061534935308046</v>
       </c>
       <c r="Q9">
-        <v>0.01041506538549937</v>
+        <v>0.01160227397486608</v>
       </c>
       <c r="R9">
-        <v>29.94302962589518</v>
+        <v>29.18953654097231</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2366,16 +2564,16 @@
         <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F10">
-        <v>81.58561784728603</v>
+        <v>40.63411665301829</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2393,45 +2591,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L10">
-        <v>3.323992050663335</v>
+        <v>15.75</v>
       </c>
       <c r="M10">
-        <v>2.065432264512727</v>
+        <v>9.786593249999999</v>
       </c>
       <c r="N10">
-        <v>4281794.671028516</v>
+        <v>4612294.53536469</v>
       </c>
       <c r="O10">
-        <v>4187062.925450178</v>
+        <v>4502172.66778895</v>
       </c>
       <c r="P10">
-        <v>15.55132746607871</v>
+        <v>7.086007894904044</v>
       </c>
       <c r="Q10">
-        <v>0.02589936707267376</v>
+        <v>0.01164720586014826</v>
       </c>
       <c r="R10">
-        <v>30.27211505485891</v>
+        <v>29.54444609102749</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F11">
-        <v>40.45828744885772</v>
+        <v>22.97578812401434</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -2449,45 +2647,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L11">
-        <v>50</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M11">
-        <v>31.06855</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N11">
-        <v>4719848.27318464</v>
+        <v>4502172.66778895</v>
       </c>
       <c r="O11">
-        <v>4380185.928533822</v>
+        <v>4463734.633948709</v>
       </c>
       <c r="P11">
-        <v>7.379432487402358</v>
+        <v>4.021003326034586</v>
       </c>
       <c r="Q11">
-        <v>0.01227460561863438</v>
+        <v>0.006610219918105315</v>
       </c>
       <c r="R11">
-        <v>29.61240128230223</v>
+        <v>29.67143043031832</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F12">
-        <v>40.45828745116749</v>
+        <v>22.97578812513005</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -2505,101 +2703,101 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L12">
-        <v>46.45188823049887</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M12">
-        <v>28.86385624167331</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N12">
-        <v>4380185.928533822</v>
+        <v>4463734.633948709</v>
       </c>
       <c r="O12">
-        <v>4039730.905092273</v>
+        <v>4424962.58094961</v>
       </c>
       <c r="P12">
-        <v>7.986475785066582</v>
+        <v>4.035513311458246</v>
       </c>
       <c r="Q12">
-        <v>0.01331374560271086</v>
+        <v>0.006635020102547248</v>
       </c>
       <c r="R12">
-        <v>30.80631370536151</v>
+        <v>29.80119150259255</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="F13">
-        <v>40.98615950481964</v>
+        <v>22.97578812628493</v>
       </c>
       <c r="G13">
         <v>650</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>7.925</v>
+        <v>9.525</v>
       </c>
       <c r="J13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>5.096226240974513</v>
+        <v>4.71984827318464</v>
       </c>
       <c r="L13">
-        <v>96.45188823049887</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M13">
-        <v>59.93240624167331</v>
+        <v>10.04549783333334</v>
       </c>
       <c r="N13">
-        <v>4719848.27318464</v>
+        <v>4424962.58094961</v>
       </c>
       <c r="O13">
-        <v>4039730.905092273</v>
+        <v>4385847.646752771</v>
       </c>
       <c r="P13">
-        <v>8.010541635224845</v>
+        <v>4.050181543422964</v>
       </c>
       <c r="Q13">
-        <v>0.01335386425020231</v>
+        <v>0.006660097299644174</v>
       </c>
       <c r="R13">
-        <v>30.80631370536151</v>
+        <v>29.93384054850819</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F14">
-        <v>81.44444692127226</v>
+        <v>22.9757881275014</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -2617,45 +2815,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L14">
-        <v>3.548111769501133</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M14">
-        <v>2.204693758326688</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N14">
-        <v>4039730.905092273</v>
+        <v>4385847.646752771</v>
       </c>
       <c r="O14">
-        <v>3932831.325420044</v>
+        <v>4345154.222248667</v>
       </c>
       <c r="P14">
-        <v>16.50358032857635</v>
+        <v>4.065472160928111</v>
       </c>
       <c r="Q14">
-        <v>0.02753205947066126</v>
+        <v>0.006686245627120275</v>
       </c>
       <c r="R14">
-        <v>31.21218975190076</v>
+        <v>30.0737401177898</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F15">
-        <v>40.35095779164422</v>
+        <v>22.97578812878205</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -2673,45 +2871,45 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="M15">
-        <v>31.06855</v>
+        <v>10.35618333333334</v>
       </c>
       <c r="N15">
-        <v>4719848.27318464</v>
+        <v>4345154.222248667</v>
       </c>
       <c r="O15">
-        <v>4381989.835913492</v>
+        <v>4304075.914469231</v>
       </c>
       <c r="P15">
-        <v>7.356894016792912</v>
+        <v>4.080937303127821</v>
       </c>
       <c r="Q15">
-        <v>0.01223697728997645</v>
+        <v>0.006712699853619364</v>
       </c>
       <c r="R15">
-        <v>29.60644193015334</v>
+        <v>30.21697123288288</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F16">
-        <v>40.35095779166229</v>
+        <v>22.97578812999542</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -2729,48 +2927,48 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L16">
-        <v>21.41031072139488</v>
+        <v>13.84107704590937</v>
       </c>
       <c r="M16">
-        <v>13.30374618326386</v>
+        <v>8.600443885093751</v>
       </c>
       <c r="N16">
-        <v>4381989.835913492</v>
+        <v>4304075.914469231</v>
       </c>
       <c r="O16">
-        <v>4229263.151367228</v>
+        <v>4269661.327218073</v>
       </c>
       <c r="P16">
-        <v>7.616447016840926</v>
+        <v>4.093918401983452</v>
       </c>
       <c r="Q16">
-        <v>0.01268104643910036</v>
+        <v>0.006734910613453145</v>
       </c>
       <c r="R16">
-        <v>30.12417627856449</v>
+        <v>30.33855593583966</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
         <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="F17">
-        <v>40.87735948347838</v>
+        <v>58.61927943605907</v>
       </c>
       <c r="G17">
-        <v>650</v>
+        <v>850</v>
       </c>
       <c r="H17" t="s">
         <v>97</v>
@@ -2779,51 +2977,51 @@
         <v>7.925</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17">
-        <v>5.096226240974513</v>
+        <v>4.832051316369016</v>
       </c>
       <c r="L17">
-        <v>71.41031072139488</v>
+        <v>21.19573506320712</v>
       </c>
       <c r="M17">
-        <v>44.37229618326386</v>
+        <v>13.17041509196007</v>
       </c>
       <c r="N17">
-        <v>4719848.27318464</v>
+        <v>4347931.731497295</v>
       </c>
       <c r="O17">
-        <v>4229263.151367228</v>
+        <v>4269661.327218073</v>
       </c>
       <c r="P17">
-        <v>7.639384768925519</v>
+        <v>5.981325961253504</v>
       </c>
       <c r="Q17">
-        <v>0.01271923677886773</v>
+        <v>0.009837037999329954</v>
       </c>
       <c r="R17">
-        <v>30.12417627856449</v>
+        <v>30.33855593583966</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
         <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F18">
-        <v>81.22831724010862</v>
+        <v>81.5950540007932</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -2841,25 +3039,1873 @@
         <v>4.71984827318464</v>
       </c>
       <c r="L18">
-        <v>28.58968927860512</v>
+        <v>2.825589620757295</v>
       </c>
       <c r="M18">
-        <v>17.76480381673614</v>
+        <v>1.755739448239581</v>
       </c>
       <c r="N18">
-        <v>4229263.151367228</v>
+        <v>4269661.327218073</v>
       </c>
       <c r="O18">
-        <v>3326250.575698311</v>
+        <v>4187068.385319256</v>
       </c>
       <c r="P18">
-        <v>19.3772853388104</v>
+        <v>14.54313540405457</v>
       </c>
       <c r="Q18">
-        <v>0.03247204751003881</v>
+        <v>0.02393226595936622</v>
       </c>
       <c r="R18">
-        <v>33.86558881357831</v>
+        <v>30.63644611227876</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19">
+        <v>40.46151629336683</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L19">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M19">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N19">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O19">
+        <v>4606901.625807595</v>
+      </c>
+      <c r="P19">
+        <v>7.032952234598396</v>
+      </c>
+      <c r="Q19">
+        <v>0.01155554552945723</v>
+      </c>
+      <c r="R19">
+        <v>29.20660854775371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20">
+        <v>40.46151629352922</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L20">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M20">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N20">
+        <v>4606901.625807595</v>
+      </c>
+      <c r="O20">
+        <v>4491115.828145333</v>
+      </c>
+      <c r="P20">
+        <v>7.058762941161568</v>
+      </c>
+      <c r="Q20">
+        <v>0.01160289485170114</v>
+      </c>
+      <c r="R20">
+        <v>29.58080645447449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21">
+        <v>40.46151629370412</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L21">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M21">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N21">
+        <v>4491115.828145333</v>
+      </c>
+      <c r="O21">
+        <v>4372263.645954771</v>
+      </c>
+      <c r="P21">
+        <v>7.084859966655984</v>
+      </c>
+      <c r="Q21">
+        <v>0.01165089062086908</v>
+      </c>
+      <c r="R21">
+        <v>29.98032355349071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" t="s">
+        <v>226</v>
+      </c>
+      <c r="F22">
+        <v>40.46151629389012</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L22">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M22">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N22">
+        <v>4372263.645954771</v>
+      </c>
+      <c r="O22">
+        <v>4250087.731948309</v>
+      </c>
+      <c r="P22">
+        <v>7.111248644434314</v>
+      </c>
+      <c r="Q22">
+        <v>0.01169957346603037</v>
+      </c>
+      <c r="R22">
+        <v>30.40836644477552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23">
+        <v>40.46151629408888</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L23">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M23">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N23">
+        <v>4250087.731948309</v>
+      </c>
+      <c r="O23">
+        <v>4124292.592620396</v>
+      </c>
+      <c r="P23">
+        <v>7.137934447986627</v>
+      </c>
+      <c r="Q23">
+        <v>0.01174891730022421</v>
+      </c>
+      <c r="R23">
+        <v>30.86896136756964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24">
+        <v>40.4615162942627</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L24">
+        <v>14.00273754174687</v>
+      </c>
+      <c r="M24">
+        <v>8.700895029052795</v>
+      </c>
+      <c r="N24">
+        <v>4124292.592620396</v>
+      </c>
+      <c r="O24">
+        <v>4015555.570215305</v>
+      </c>
+      <c r="P24">
+        <v>7.160588697759516</v>
+      </c>
+      <c r="Q24">
+        <v>0.011790889160662</v>
+      </c>
+      <c r="R24">
+        <v>31.28457093892471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
+        <v>227</v>
+      </c>
+      <c r="F25">
+        <v>40.98928813657369</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25">
+        <v>7.925</v>
+      </c>
+      <c r="J25" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L25">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M25">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N25">
+        <v>4141268.801818811</v>
+      </c>
+      <c r="O25">
+        <v>4015555.570215305</v>
+      </c>
+      <c r="P25">
+        <v>7.193635208231782</v>
+      </c>
+      <c r="Q25">
+        <v>0.01183986660647063</v>
+      </c>
+      <c r="R25">
+        <v>31.28457093892471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26">
+        <v>81.45080418410608</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L26">
+        <v>2.6639291249198</v>
+      </c>
+      <c r="M26">
+        <v>1.655288304280541</v>
+      </c>
+      <c r="N26">
+        <v>4015555.570215305</v>
+      </c>
+      <c r="O26">
+        <v>3932990.946271468</v>
+      </c>
+      <c r="P26">
+        <v>14.41845437512597</v>
+      </c>
+      <c r="Q26">
+        <v>0.02374913807631027</v>
+      </c>
+      <c r="R26">
+        <v>31.61160481410672</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27">
+        <v>40.35098889144589</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L27">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M27">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N27">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O27">
+        <v>4607504.095842919</v>
+      </c>
+      <c r="P27">
+        <v>7.013740549370096</v>
+      </c>
+      <c r="Q27">
+        <v>0.01152395359239503</v>
+      </c>
+      <c r="R27">
+        <v>29.20469985849617</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28">
+        <v>40.3509888914464</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L28">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M28">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N28">
+        <v>4607504.095842919</v>
+      </c>
+      <c r="O28">
+        <v>4492351.753694202</v>
+      </c>
+      <c r="P28">
+        <v>7.039480749519385</v>
+      </c>
+      <c r="Q28">
+        <v>0.01157114705820113</v>
+      </c>
+      <c r="R28">
+        <v>29.57673545381472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>204</v>
+      </c>
+      <c r="E29" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29">
+        <v>40.35098889144686</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L29">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M29">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N29">
+        <v>4492351.753694202</v>
+      </c>
+      <c r="O29">
+        <v>4374167.795240593</v>
+      </c>
+      <c r="P29">
+        <v>7.065506486457675</v>
+      </c>
+      <c r="Q29">
+        <v>0.01161898260094735</v>
+      </c>
+      <c r="R29">
+        <v>29.97379470558885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" t="s">
+        <v>205</v>
+      </c>
+      <c r="E30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30">
+        <v>40.35098889144718</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>4374167.795240593</v>
+      </c>
+      <c r="O30">
+        <v>4252699.37685535</v>
+      </c>
+      <c r="P30">
+        <v>7.091823078969735</v>
+      </c>
+      <c r="Q30">
+        <v>0.01166750113398949</v>
+      </c>
+      <c r="R30">
+        <v>30.39902397478775</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31">
+        <v>40.35098889144781</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L31">
+        <v>6.289874577659134</v>
+      </c>
+      <c r="M31">
+        <v>3.908345656194634</v>
+      </c>
+      <c r="N31">
+        <v>4252699.37685535</v>
+      </c>
+      <c r="O31">
+        <v>4205945.994330226</v>
+      </c>
+      <c r="P31">
+        <v>7.101831478562914</v>
+      </c>
+      <c r="Q31">
+        <v>0.01168599440020382</v>
+      </c>
+      <c r="R31">
+        <v>30.56758651032019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32">
+        <v>40.87732838366796</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32">
+        <v>7.925</v>
+      </c>
+      <c r="J32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L32">
+        <v>14.59130824886516</v>
+      </c>
+      <c r="M32">
+        <v>9.066615797905595</v>
+      </c>
+      <c r="N32">
+        <v>4313628.812815876</v>
+      </c>
+      <c r="O32">
+        <v>4205945.994330226</v>
+      </c>
+      <c r="P32">
+        <v>7.133347092438748</v>
+      </c>
+      <c r="Q32">
+        <v>0.01173316861166444</v>
+      </c>
+      <c r="R32">
+        <v>30.56758651032019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" t="s">
+        <v>208</v>
+      </c>
+      <c r="E33" t="s">
+        <v>226</v>
+      </c>
+      <c r="F33">
+        <v>81.22831726465292</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L33">
+        <v>10.37679208900753</v>
+      </c>
+      <c r="M33">
+        <v>6.447837677138698</v>
+      </c>
+      <c r="N33">
+        <v>4205945.994330226</v>
+      </c>
+      <c r="O33">
+        <v>3891958.562843913</v>
+      </c>
+      <c r="P33">
+        <v>14.31112636427186</v>
+      </c>
+      <c r="Q33">
+        <v>0.02357590190854824</v>
+      </c>
+      <c r="R33">
+        <v>31.77799367909563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34">
+        <v>81.22831726624625</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.71984827318464</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N34">
+        <v>3891958.562843913</v>
+      </c>
+      <c r="O34">
+        <v>3326116.802827408</v>
+      </c>
+      <c r="P34">
+        <v>14.36509557177943</v>
+      </c>
+      <c r="Q34">
+        <v>0.02371358295940425</v>
+      </c>
+      <c r="R34">
+        <v>34.3791925174419</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" t="s">
+        <v>176</v>
+      </c>
+      <c r="D35" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35">
+        <v>59.64913576202489</v>
+      </c>
+      <c r="G35">
+        <v>750</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35">
+        <v>6.35</v>
+      </c>
+      <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L35">
+        <v>16.96165322695675</v>
+      </c>
+      <c r="M35">
+        <v>10.53947942728734</v>
+      </c>
+      <c r="N35">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O35">
+        <v>4608588.977786747</v>
+      </c>
+      <c r="P35">
+        <v>7.714419249482035</v>
+      </c>
+      <c r="Q35">
+        <v>0.01267515488932166</v>
+      </c>
+      <c r="R35">
+        <v>29.20126378033352</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36">
+        <v>59.64913772639277</v>
+      </c>
+      <c r="G36">
+        <v>750</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36">
+        <v>6.35</v>
+      </c>
+      <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L36">
+        <v>16.96165322695675</v>
+      </c>
+      <c r="M36">
+        <v>10.53947942728734</v>
+      </c>
+      <c r="N36">
+        <v>4608588.977786747</v>
+      </c>
+      <c r="O36">
+        <v>4494576.861695977</v>
+      </c>
+      <c r="P36">
+        <v>7.714419992441051</v>
+      </c>
+      <c r="Q36">
+        <v>0.01267515611003839</v>
+      </c>
+      <c r="R36">
+        <v>29.56941043171472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37">
+        <v>59.64913984149046</v>
+      </c>
+      <c r="G37">
+        <v>750</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37">
+        <v>6.35</v>
+      </c>
+      <c r="J37" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37">
+        <v>4.757837256443139</v>
+      </c>
+      <c r="L37">
+        <v>16.96165322695675</v>
+      </c>
+      <c r="M37">
+        <v>10.53947942728734</v>
+      </c>
+      <c r="N37">
+        <v>4494576.861695977</v>
+      </c>
+      <c r="O37">
+        <v>4377595.17267076</v>
+      </c>
+      <c r="P37">
+        <v>7.700877710808309</v>
+      </c>
+      <c r="Q37">
+        <v>0.01265821488623383</v>
+      </c>
+      <c r="R37">
+        <v>29.96205383285539</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38">
+        <v>58.61927934521254</v>
+      </c>
+      <c r="G38">
+        <v>850</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38">
+        <v>7.925</v>
+      </c>
+      <c r="J38" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L38">
+        <v>21.19573506320712</v>
+      </c>
+      <c r="M38">
+        <v>13.17041509196007</v>
+      </c>
+      <c r="N38">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O38">
+        <v>4647846.395113886</v>
+      </c>
+      <c r="P38">
+        <v>6.010515472769494</v>
+      </c>
+      <c r="Q38">
+        <v>0.009874108578083921</v>
+      </c>
+      <c r="R38">
+        <v>29.07773644414369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39">
+        <v>58.61927936194282</v>
+      </c>
+      <c r="G39">
+        <v>850</v>
+      </c>
+      <c r="H39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39">
+        <v>7.925</v>
+      </c>
+      <c r="J39" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L39">
+        <v>21.19573506320712</v>
+      </c>
+      <c r="M39">
+        <v>13.17041509196007</v>
+      </c>
+      <c r="N39">
+        <v>4647846.395113886</v>
+      </c>
+      <c r="O39">
+        <v>4574711.939335294</v>
+      </c>
+      <c r="P39">
+        <v>6.010515480966531</v>
+      </c>
+      <c r="Q39">
+        <v>0.00987410859155006</v>
+      </c>
+      <c r="R39">
+        <v>29.3091809863452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40">
+        <v>58.61927937856503</v>
+      </c>
+      <c r="G40">
+        <v>850</v>
+      </c>
+      <c r="H40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I40">
+        <v>7.925</v>
+      </c>
+      <c r="J40" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L40">
+        <v>21.19573506320712</v>
+      </c>
+      <c r="M40">
+        <v>13.17041509196007</v>
+      </c>
+      <c r="N40">
+        <v>4574711.939335294</v>
+      </c>
+      <c r="O40">
+        <v>4500388.96560849</v>
+      </c>
+      <c r="P40">
+        <v>6.003178058165441</v>
+      </c>
+      <c r="Q40">
+        <v>0.009864743717437147</v>
+      </c>
+      <c r="R40">
+        <v>29.55030271733839</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41">
+        <v>58.61927939687872</v>
+      </c>
+      <c r="G41">
+        <v>850</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41">
+        <v>7.925</v>
+      </c>
+      <c r="J41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L41">
+        <v>21.19573506320712</v>
+      </c>
+      <c r="M41">
+        <v>13.17041509196007</v>
+      </c>
+      <c r="N41">
+        <v>4500388.96560849</v>
+      </c>
+      <c r="O41">
+        <v>4424817.275638117</v>
+      </c>
+      <c r="P41">
+        <v>5.995867439091652</v>
+      </c>
+      <c r="Q41">
+        <v>0.009855416606790847</v>
+      </c>
+      <c r="R41">
+        <v>29.80168101259298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42">
+        <v>58.61927941600257</v>
+      </c>
+      <c r="G42">
+        <v>850</v>
+      </c>
+      <c r="H42" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42">
+        <v>7.925</v>
+      </c>
+      <c r="J42" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>4.832051316369016</v>
+      </c>
+      <c r="L42">
+        <v>21.19573506320712</v>
+      </c>
+      <c r="M42">
+        <v>13.17041509196007</v>
+      </c>
+      <c r="N42">
+        <v>4424817.275638117</v>
+      </c>
+      <c r="O42">
+        <v>4347931.731497295</v>
+      </c>
+      <c r="P42">
+        <v>5.988583460540558</v>
+      </c>
+      <c r="Q42">
+        <v>0.009846180609148398</v>
+      </c>
+      <c r="R42">
+        <v>30.06412890698333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43">
+        <v>40.98928813533937</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I43">
+        <v>7.925</v>
+      </c>
+      <c r="J43" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L43">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M43">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N43">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O43">
+        <v>4609946.315410162</v>
+      </c>
+      <c r="P43">
+        <v>7.299693705442105</v>
+      </c>
+      <c r="Q43">
+        <v>0.01199368021550976</v>
+      </c>
+      <c r="R43">
+        <v>29.19696647793189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44">
+        <v>40.98928813571548</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44">
+        <v>7.925</v>
+      </c>
+      <c r="J44" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L44">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M44">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N44">
+        <v>4609946.315410162</v>
+      </c>
+      <c r="O44">
+        <v>4497359.970995316</v>
+      </c>
+      <c r="P44">
+        <v>7.299693705809517</v>
+      </c>
+      <c r="Q44">
+        <v>0.01199368021611343</v>
+      </c>
+      <c r="R44">
+        <v>29.56025613387454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C45" t="s">
+        <v>216</v>
+      </c>
+      <c r="D45" t="s">
+        <v>217</v>
+      </c>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45">
+        <v>40.98928813589438</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>97</v>
+      </c>
+      <c r="I45">
+        <v>7.925</v>
+      </c>
+      <c r="J45" t="s">
+        <v>95</v>
+      </c>
+      <c r="K45">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L45">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M45">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N45">
+        <v>4497359.970995316</v>
+      </c>
+      <c r="O45">
+        <v>4381880.669648863</v>
+      </c>
+      <c r="P45">
+        <v>7.272732937968436</v>
+      </c>
+      <c r="Q45">
+        <v>0.01195433541147204</v>
+      </c>
+      <c r="R45">
+        <v>29.94739276608697</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46">
+        <v>40.98928813608481</v>
+      </c>
+      <c r="G46">
+        <v>650</v>
+      </c>
+      <c r="H46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46">
+        <v>7.925</v>
+      </c>
+      <c r="J46" t="s">
+        <v>95</v>
+      </c>
+      <c r="K46">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L46">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M46">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N46">
+        <v>4381880.669648863</v>
+      </c>
+      <c r="O46">
+        <v>4263273.2382393</v>
+      </c>
+      <c r="P46">
+        <v>7.246068673602798</v>
+      </c>
+      <c r="Q46">
+        <v>0.01191557174576511</v>
+      </c>
+      <c r="R46">
+        <v>30.36128659526102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47">
+        <v>40.98928813628891</v>
+      </c>
+      <c r="G47">
+        <v>650</v>
+      </c>
+      <c r="H47" t="s">
+        <v>97</v>
+      </c>
+      <c r="I47">
+        <v>7.925</v>
+      </c>
+      <c r="J47" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L47">
+        <v>16.22267847918004</v>
+      </c>
+      <c r="M47">
+        <v>10.08030194928658</v>
+      </c>
+      <c r="N47">
+        <v>4263273.2382393</v>
+      </c>
+      <c r="O47">
+        <v>4141268.801818811</v>
+      </c>
+      <c r="P47">
+        <v>7.219700441733015</v>
+      </c>
+      <c r="Q47">
+        <v>0.01187741999181572</v>
+      </c>
+      <c r="R47">
+        <v>30.8055588306556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48">
+        <v>40.87732838365176</v>
+      </c>
+      <c r="G48">
+        <v>650</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48">
+        <v>7.925</v>
+      </c>
+      <c r="J48" t="s">
+        <v>95</v>
+      </c>
+      <c r="K48">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L48">
+        <v>14.59130824886516</v>
+      </c>
+      <c r="M48">
+        <v>9.066615797905595</v>
+      </c>
+      <c r="N48">
+        <v>4719848.27318464</v>
+      </c>
+      <c r="O48">
+        <v>4621642.133181515</v>
+      </c>
+      <c r="P48">
+        <v>7.202934101930238</v>
+      </c>
+      <c r="Q48">
+        <v>0.01183418167657131</v>
+      </c>
+      <c r="R48">
+        <v>29.16001620025981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49">
+        <v>40.87732838365556</v>
+      </c>
+      <c r="G49">
+        <v>650</v>
+      </c>
+      <c r="H49" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49">
+        <v>7.925</v>
+      </c>
+      <c r="J49" t="s">
+        <v>95</v>
+      </c>
+      <c r="K49">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L49">
+        <v>14.59130824886516</v>
+      </c>
+      <c r="M49">
+        <v>9.066615797905595</v>
+      </c>
+      <c r="N49">
+        <v>4621642.133181515</v>
+      </c>
+      <c r="O49">
+        <v>4521304.024871361</v>
+      </c>
+      <c r="P49">
+        <v>7.202934101935488</v>
+      </c>
+      <c r="Q49">
+        <v>0.01183418167657994</v>
+      </c>
+      <c r="R49">
+        <v>29.48184817669038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C50" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50">
+        <v>40.87732838365618</v>
+      </c>
+      <c r="G50">
+        <v>650</v>
+      </c>
+      <c r="H50" t="s">
+        <v>97</v>
+      </c>
+      <c r="I50">
+        <v>7.925</v>
+      </c>
+      <c r="J50" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L50">
+        <v>14.59130824886516</v>
+      </c>
+      <c r="M50">
+        <v>9.066615797905595</v>
+      </c>
+      <c r="N50">
+        <v>4521304.024871361</v>
+      </c>
+      <c r="O50">
+        <v>4418687.148483393</v>
+      </c>
+      <c r="P50">
+        <v>7.179512612202522</v>
+      </c>
+      <c r="Q50">
+        <v>0.01180006986307995</v>
+      </c>
+      <c r="R50">
+        <v>29.82235441623191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51">
+        <v>40.87732838365728</v>
+      </c>
+      <c r="G51">
+        <v>650</v>
+      </c>
+      <c r="H51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51">
+        <v>7.925</v>
+      </c>
+      <c r="J51" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51">
+        <v>5.096226240974513</v>
+      </c>
+      <c r="L51">
+        <v>14.59130824886516</v>
+      </c>
+      <c r="M51">
+        <v>9.066615797905595</v>
+      </c>
+      <c r="N51">
+        <v>4418687.148483393</v>
+      </c>
+      <c r="O51">
+        <v>4313628.812815876</v>
+      </c>
+      <c r="P51">
+        <v>7.156318157228734</v>
+      </c>
+      <c r="Q51">
+        <v>0.01176638731597602</v>
+      </c>
+      <c r="R51">
+        <v>30.18347978364333</v>
       </c>
     </row>
   </sheetData>
@@ -2877,7 +4923,7 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2892,43 +4938,43 @@
         <v>114</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2936,13 +4982,13 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F2">
         <v>70</v>
@@ -2951,16 +4997,16 @@
         <v>43.49597</v>
       </c>
       <c r="H2">
-        <v>1.133528911202676</v>
+        <v>1.133410281926931</v>
       </c>
       <c r="I2">
-        <v>40.04486357331121</v>
+        <v>40.94716130392816</v>
       </c>
       <c r="J2">
-        <v>4.189765264697724</v>
+        <v>4.284169773861142</v>
       </c>
       <c r="K2">
-        <v>5618.559015264941</v>
+        <v>5745.157350143269</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -2989,13 +5035,13 @@
         <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F3">
         <v>200</v>
@@ -3004,16 +5050,16 @@
         <v>124.2742</v>
       </c>
       <c r="H3">
-        <v>1.127245603235633</v>
+        <v>1.127244133325699</v>
       </c>
       <c r="I3">
-        <v>31.38309276843322</v>
+        <v>32.07211513630646</v>
       </c>
       <c r="J3">
-        <v>3.283512047412763</v>
+        <v>3.355602241408057</v>
       </c>
       <c r="K3">
-        <v>4403.255325821463</v>
+        <v>4499.929717773032</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -3042,31 +5088,31 @@
         <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G4">
         <v>186.4113</v>
       </c>
       <c r="H4">
-        <v>1.200114594968178</v>
+        <v>1.200065888191053</v>
       </c>
       <c r="I4">
-        <v>48.04901496381759</v>
+        <v>49.46237611889874</v>
       </c>
       <c r="J4">
-        <v>5.027213877999434</v>
+        <v>5.17508930934386</v>
       </c>
       <c r="K4">
-        <v>6741.5943546748</v>
+        <v>6939.898265616303</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -3097,7 +5143,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3105,15 +5151,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>4719848.27318464</v>
@@ -3121,130 +5167,394 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="B3">
-        <v>4459023.716228035</v>
+        <v>4632613.340020168</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B4">
-        <v>4270982.154079858</v>
+        <v>4543704.623053531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B5">
-        <v>4163853.45493912</v>
+        <v>4453020.407151617</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="B6">
-        <v>4719848.27318464</v>
+        <v>4348739.973889815</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B7">
-        <v>4507131.253866936</v>
+        <v>4257399.031389835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="B8">
-        <v>4393715.737919576</v>
+        <v>4164289.267925417</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="B9">
-        <v>4281794.671028516</v>
+        <v>4719848.27318464</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="B10">
-        <v>4187062.925450178</v>
+        <v>4612294.53536469</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B11">
-        <v>4719848.27318464</v>
+        <v>4502172.66778895</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="B12">
-        <v>4380185.928533822</v>
+        <v>4463734.633948709</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="B13">
-        <v>4039730.905092273</v>
+        <v>4424962.58094961</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B14">
-        <v>3932831.325420044</v>
+        <v>4385847.646752771</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="B15">
-        <v>4719848.27318464</v>
+        <v>4345154.222248667</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B16">
-        <v>4381989.835913492</v>
+        <v>4304075.914469231</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="B17">
-        <v>4229263.151367228</v>
+        <v>4269661.327218073</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="B18">
-        <v>3326250.575698311</v>
+        <v>4187068.385319256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20">
+        <v>4606901.625807595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21">
+        <v>4491115.828145333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22">
+        <v>4372263.645954771</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23">
+        <v>4250087.731948309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24">
+        <v>4124292.592620396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25">
+        <v>4015555.570215305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26">
+        <v>3932990.946271468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27">
+        <v>4719848.27318464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28">
+        <v>4607504.095842919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29">
+        <v>4492351.753694202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30">
+        <v>4374167.795240593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B31">
+        <v>4252699.37685535</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32">
+        <v>4205945.994330226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33">
+        <v>3891958.562843913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34">
+        <v>3326116.802827408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35">
+        <v>4608588.977786747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B36">
+        <v>4494576.861695977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37">
+        <v>4377595.17267076</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>4647846.395113886</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39">
+        <v>4574711.939335294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40">
+        <v>4500388.96560849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41">
+        <v>4424817.275638117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42">
+        <v>4347931.731497295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43">
+        <v>4609946.315410162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44">
+        <v>4497359.970995316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45">
+        <v>4381880.669648863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46">
+        <v>4263273.2382393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="B47">
+        <v>4141268.801818811</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48">
+        <v>4621642.133181515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49">
+        <v>4521304.024871361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50">
+        <v>4418687.148483393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51">
+        <v>4313628.812815876</v>
       </c>
     </row>
   </sheetData>
@@ -3262,36 +5572,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="B2">
         <v>17.65832997587177</v>
       </c>
       <c r="C2">
-        <v>17.65833049211779</v>
+        <v>17.65832852900395</v>
       </c>
       <c r="D2">
         <v>65.15454188318284</v>
@@ -3300,21 +5610,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520433635774</v>
+        <v>1150.52030572999</v>
       </c>
       <c r="G2">
-        <v>2.923526911898426E-06</v>
+        <v>-8.193684312685264E-06</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
       <c r="B3">
         <v>45.91165732334162</v>
       </c>
       <c r="C3">
-        <v>45.91165730357228</v>
+        <v>45.91165731834572</v>
       </c>
       <c r="D3">
         <v>65.15454188318284</v>
@@ -3323,21 +5633,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352998711938</v>
+        <v>2991.352999674495</v>
       </c>
       <c r="G3">
-        <v>-4.305951760196387E-08</v>
+        <v>-1.088154364417359E-08</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="B4">
         <v>35.31665995174353</v>
       </c>
       <c r="C4">
-        <v>35.31665993653635</v>
+        <v>35.31665994790053</v>
       </c>
       <c r="D4">
         <v>65.15454188318284</v>
@@ -3346,10 +5656,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799009183</v>
+        <v>2301.040799749611</v>
       </c>
       <c r="G4">
-        <v>-4.305952166906831E-08</v>
+        <v>-1.088154659392757E-08</v>
       </c>
     </row>
   </sheetData>
